--- a/spec-docs/仕様書/emotion-derby仕様書.xlsx
+++ b/spec-docs/仕様書/emotion-derby仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UnityProject\TGD\HomeRunDerby\document\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UnityProject\TGD\HomeRunDerby\spec-docs\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55D6151-E518-4FA6-97D3-EE301E743249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD04D11-89BF-41D6-8CD7-9FED37408345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{AB3A2FD8-80D9-47B2-94E5-31B2AEC38565}"/>
+    <workbookView xWindow="-28920" yWindow="930" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{AB3A2FD8-80D9-47B2-94E5-31B2AEC38565}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="タイトル画面" sheetId="3" r:id="rId3"/>
     <sheet name="投手決定画面" sheetId="4" r:id="rId4"/>
     <sheet name="ステータス画面" sheetId="8" r:id="rId5"/>
-    <sheet name="バッティング画面" sheetId="5" r:id="rId6"/>
-    <sheet name="リザルト画面" sheetId="7" r:id="rId7"/>
+    <sheet name="ステータスパラメータ" sheetId="9" r:id="rId6"/>
+    <sheet name="バッティング画面" sheetId="5" r:id="rId7"/>
+    <sheet name="リザルト画面" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="152">
   <si>
     <t>くまのプーさんのホームランダービー!(仮)仕様書</t>
     <rPh sb="19" eb="20">
@@ -1186,12 +1187,443 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>レベルアップに必要なpt一覧表</t>
+  </si>
+  <si>
+    <t>Lv.</t>
+  </si>
+  <si>
+    <t>パワー</t>
+  </si>
+  <si>
+    <t>ミート</t>
+  </si>
+  <si>
+    <t>スピード</t>
+  </si>
+  <si>
+    <t>Lv.01</t>
+  </si>
+  <si>
+    <t>Lv.02</t>
+  </si>
+  <si>
+    <t>Lv.03</t>
+  </si>
+  <si>
+    <t>Lv.04</t>
+  </si>
+  <si>
+    <t>Lv.05</t>
+  </si>
+  <si>
+    <t>Lv.06</t>
+  </si>
+  <si>
+    <t>Lv.07</t>
+  </si>
+  <si>
+    <t>Lv.08</t>
+  </si>
+  <si>
+    <t>Lv.09</t>
+  </si>
+  <si>
+    <t>Lv.10</t>
+  </si>
+  <si>
+    <t>Lv.11</t>
+  </si>
+  <si>
+    <t>Lv.12</t>
+  </si>
+  <si>
+    <t>Lv.13</t>
+  </si>
+  <si>
+    <t>Lv.14</t>
+  </si>
+  <si>
+    <t>Lv.15</t>
+  </si>
+  <si>
+    <t>Lv.16</t>
+  </si>
+  <si>
+    <t>Lv.17</t>
+  </si>
+  <si>
+    <t>Lv.18</t>
+  </si>
+  <si>
+    <t>Lv.19</t>
+  </si>
+  <si>
+    <t>Lv.20</t>
+  </si>
+  <si>
+    <t>500pt</t>
+  </si>
+  <si>
+    <t>500pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000pt</t>
+  </si>
+  <si>
+    <t>1500pt</t>
+  </si>
+  <si>
+    <t>2000pt</t>
+  </si>
+  <si>
+    <t>3000pt</t>
+  </si>
+  <si>
+    <t>5000pt</t>
+  </si>
+  <si>
+    <t>7000pt</t>
+  </si>
+  <si>
+    <t>10000pt</t>
+  </si>
+  <si>
+    <t>15000pt</t>
+  </si>
+  <si>
+    <t>20000pt</t>
+  </si>
+  <si>
+    <t>25000pt</t>
+  </si>
+  <si>
+    <t>30000pt</t>
+  </si>
+  <si>
+    <t>30000pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35000pt</t>
+  </si>
+  <si>
+    <t>40000pt</t>
+  </si>
+  <si>
+    <t>50000pt</t>
+  </si>
+  <si>
+    <t>60000pt</t>
+  </si>
+  <si>
+    <t>70000pt</t>
+  </si>
+  <si>
+    <t>80000pt</t>
+  </si>
+  <si>
+    <t>90000pt</t>
+  </si>
+  <si>
+    <t>100000pt</t>
+  </si>
+  <si>
+    <t>300pt</t>
+  </si>
+  <si>
+    <t>700pt</t>
+  </si>
+  <si>
+    <t>10000pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100pt</t>
+  </si>
+  <si>
+    <t>200pt</t>
+  </si>
+  <si>
+    <t>400pt</t>
+  </si>
+  <si>
+    <t>600pt</t>
+  </si>
+  <si>
+    <t>800pt</t>
+  </si>
+  <si>
+    <t>15000pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45000pt</t>
+  </si>
+  <si>
+    <t>ステータスパラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT取得計算式</t>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333322"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>取得</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333322"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PT = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333322"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホームラン数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333322"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> * 30 * (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333322"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ステージ数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333322"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>) + 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333322"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>試合総飛距離</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333322"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> * 0.1</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ヒキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333322"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正し、ステージ数乗算はノルマ達成時のみ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333322"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333322"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・球場の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333322"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>HR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333322"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に必要な飛距離は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333322"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>500m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333322"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とする</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>キュウジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヒキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・球場のフェア角度は実際の球場と同じく90度とする</t>
+    <rPh sb="1" eb="3">
+      <t>キュウジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キュウジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■その他仕様</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,8 +1674,97 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333322"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333322"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333322"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333322"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333322"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333322"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333322"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333322"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333322"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333322"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333322"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1262,8 +1783,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1297,13 +1848,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,6 +1917,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6866,10 +7498,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260008AE-0592-4112-91EF-C7FBF238D3DE}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6877,6 +7509,8 @@
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.4">
@@ -7026,7 +7660,127 @@
       </c>
       <c r="E38" s="7"/>
     </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="20"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42" s="18"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="18"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44" s="18"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="18"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="18"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="18"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="18"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="18"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B50" s="18"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B51" s="18"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B52" s="18"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B53" s="18"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B54" s="18"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55" s="18"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B56" s="18"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B57" s="18"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B58" s="18"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B59" s="18"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B60" s="18"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B61" s="18"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B40:E40"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7035,11 +7789,352 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C12614-9C5C-48FA-8C29-0EE3D217F6F8}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="8" max="8" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="G4" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="B5" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155439A9-680D-498A-9699-FE0AD4665CE3}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7196,6 +8291,24 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
+    <row r="55" spans="2:5" ht="24" x14ac:dyDescent="0.4">
+      <c r="B55" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B56" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B57" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B58" s="41"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7204,7 +8317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F611A8-FD9F-4D73-B3F9-A903D6B00D76}">
   <dimension ref="A1:H63"/>
   <sheetViews>
